--- a/nlp/static/分词修改词典.xlsx
+++ b/nlp/static/分词修改词典.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,116 +18,123 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
-    <t>/未见异常/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/未见/异常/</t>
-  </si>
-  <si>
-    <t>/内未见/</t>
-  </si>
-  <si>
-    <t>/内/未见/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/处见/</t>
-  </si>
-  <si>
-    <t>/处/见/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/影及/</t>
-  </si>
-  <si>
     <t>/影/及/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/右主/</t>
-  </si>
-  <si>
     <t>/右/主/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/内见/</t>
-  </si>
-  <si>
-    <t>/内/见/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/下见/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/下/见/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/肝内/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/肝/内/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/内同/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/内/同/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/比较清楚/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/比较/清楚/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/未/见/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/未见/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/旁见/</t>
-  </si>
-  <si>
-    <t>/旁/见/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/壁见/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/壁/见/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/余未见/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/余/未见/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/上/叶舌/段/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/上叶/舌段/</t>
+    <t>未见异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未见/异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内未见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内/未见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>处/见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影及</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内/见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下/见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肝/内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较清楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较/清楚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未/见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壁/见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旁/见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余未见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余/未见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上/叶舌/段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上叶/舌段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内/同</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -491,10 +498,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1">
         <v>1</v>
@@ -502,10 +509,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -513,18 +520,18 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -532,10 +539,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -579,7 +586,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -587,26 +594,26 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -614,26 +621,26 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -646,7 +653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C15"/>
     </sheetView>
   </sheetViews>
